--- a/Resumen Pruebas.xlsx
+++ b/Resumen Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNALM\8vo ciclo\Estadistica no Parametrica\Teoría\TEMAS ESTADISTICA NO PARAMETRICA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D2408F-0B5E-4D0D-BFB0-DBEC79161707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D7751C-63A3-4534-939B-9DFFFAFA77B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66D35C45-E98B-4E0A-B7D1-53A231D509CF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Variables dicotomicas</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Proporciones (Éxito y fracaso)</t>
   </si>
   <si>
-    <t>H0: X se ajusta a una F(X) Ejm:: El monto gastado en la última visita presenta un comportamiento normal</t>
-  </si>
-  <si>
     <t>Cualitativa</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
   </si>
   <si>
     <t>Cuantitativa</t>
-  </si>
-  <si>
-    <t>H1: X no se ajusta a una F(X) Ejm:El monto gastado en la última visitano  presenta un comportamiento normal</t>
   </si>
   <si>
     <t>seet.seed()</t>
@@ -159,11 +153,24 @@
     <t>Prueba de Grubbs</t>
   </si>
   <si>
-    <t>Dixon</t>
-  </si>
-  <si>
     <t xml:space="preserve">H0: Las observaciones son aleatorias con respecto al número mediano de veces al mes que un cliente acude al restaurante
 </t>
+  </si>
+  <si>
+    <t>Dixon n&lt;30</t>
+  </si>
+  <si>
+    <t>H0: X se ajusta a una F(X) Ejm:: El monto gastado en la última visita presenta un comportamiento normal,</t>
+  </si>
+  <si>
+    <t>H1: X no se ajusta a una F(X) Ejm:El monto gastado en la última visitano  presenta un comportamiento norma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H0: El monto gastado en la última visita presenta un comportamiento uniforme,exponencial etc
+</t>
+  </si>
+  <si>
+    <t>H1: El monto gastado en la última visita no presenta un comportamiento uniforme,exponencial etc</t>
   </si>
 </sst>
 </file>
@@ -354,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -375,8 +382,120 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -396,145 +515,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -852,7 +860,7 @@
   <dimension ref="A3:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +868,7 @@
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -868,482 +876,482 @@
       <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>9</v>
+      <c r="D3" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="32"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="53"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="37"/>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="53"/>
+      <c r="C7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="26"/>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="33" t="s">
+      <c r="D7" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="17" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="53"/>
+      <c r="C8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="27"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="27"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="27"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="26"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>18</v>
+      <c r="B12" s="53"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="39"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="39"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="39"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="14"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="40"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>19</v>
+      <c r="B17" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>17</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="40" t="s">
         <v>20</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="56"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="39"/>
+      <c r="E18" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="56"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="39"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="56"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="39"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="40"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="39"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="B22" s="13"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="43"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="38" t="s">
-        <v>23</v>
+      <c r="F22" s="40" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="44"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="39"/>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="44"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="39"/>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="44"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="39"/>
+      <c r="F25" s="38"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="2"/>
       <c r="D26" s="11"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="40"/>
+      <c r="F26" s="39"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="43"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="38" t="s">
-        <v>25</v>
+      <c r="F27" s="40" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="44"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="39"/>
+      <c r="F28" s="38"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="44"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="39"/>
+      <c r="F29" s="38"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="44"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="39"/>
+      <c r="F30" s="38"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="2"/>
       <c r="D31" s="11"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="40"/>
+      <c r="F31" s="39"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="43"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="38" t="s">
-        <v>24</v>
+      <c r="F32" s="40" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="44"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="39"/>
+      <c r="F33" s="38"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="13"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="44"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="39"/>
+      <c r="F34" s="38"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="44"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="39"/>
+      <c r="F35" s="38"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="14"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="2"/>
       <c r="D36" s="11"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="40"/>
+      <c r="F36" s="39"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
-      <c r="C37" s="25" t="s">
-        <v>29</v>
+      <c r="C37" s="35" t="s">
+        <v>27</v>
       </c>
       <c r="D37" s="5"/>
-      <c r="E37" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="59" t="s">
-        <v>28</v>
+      <c r="E37" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="41"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="60"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="33"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="41"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="60"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="33"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="41"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="60"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="33"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
-      <c r="C41" s="26"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="61"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="34"/>
     </row>
     <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="23"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="30"/>
+      <c r="F43" s="33"/>
+    </row>
+    <row r="44" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="23"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" s="59" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="41"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="60"/>
-    </row>
-    <row r="44" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="41"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="60"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="33"/>
     </row>
     <row r="45" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="41"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="60"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="33"/>
     </row>
     <row r="46" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
-      <c r="C46" s="26"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="61"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="34"/>
     </row>
     <row r="47" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
-      <c r="C47" s="25" t="s">
-        <v>36</v>
+      <c r="C47" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="D47" s="5"/>
-      <c r="E47" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" s="62" t="s">
-        <v>34</v>
+      <c r="E47" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="65" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="41"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="63"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="66"/>
     </row>
     <row r="49" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="41"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="63"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="66"/>
     </row>
     <row r="50" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="41"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="63"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="66"/>
     </row>
     <row r="51" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
-      <c r="C51" s="26"/>
+      <c r="C51" s="37"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="64"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="67"/>
     </row>
     <row r="52" spans="2:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="F52" s="24"/>
+    </row>
+    <row r="53" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="63"/>
+      <c r="C53" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="27"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="43"/>
-    </row>
-    <row r="53" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="66"/>
-      <c r="C53" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" s="48"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="44" t="s">
+    </row>
+    <row r="54" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="63"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="68" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="66"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="55" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="66"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="44"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="25"/>
     </row>
     <row r="56" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="67"/>
-      <c r="C56" s="26"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="37"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="20"/>
+      <c r="E56" s="31"/>
       <c r="F56" s="11"/>
     </row>
     <row r="57" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1364,6 +1372,12 @@
     <mergeCell ref="F27:F31"/>
     <mergeCell ref="F32:F36"/>
     <mergeCell ref="B17:B36"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="E37:E41"/>
     <mergeCell ref="F37:F41"/>
     <mergeCell ref="C37:C41"/>
@@ -1372,12 +1386,6 @@
     <mergeCell ref="C17:C21"/>
     <mergeCell ref="D12:D16"/>
     <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="D5:D6"/>
     <mergeCell ref="E13:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resumen Pruebas.xlsx
+++ b/Resumen Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNALM\8vo ciclo\Estadistica no Parametrica\Teoría\TEMAS ESTADISTICA NO PARAMETRICA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D7751C-63A3-4534-939B-9DFFFAFA77B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E67648A-99F1-41A0-A701-653299F7A730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66D35C45-E98B-4E0A-B7D1-53A231D509CF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Variables dicotomicas</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t xml:space="preserve">H0: pi = 0.4 </t>
-  </si>
-  <si>
-    <t>H1: pi &gt; 0.4</t>
   </si>
   <si>
     <t>Kolmogorov-Smirnov</t>
@@ -56,9 +53,6 @@
   </si>
   <si>
     <t>Cuantitatica</t>
-  </si>
-  <si>
-    <t>Basa su estadístico en el logaritmo de la distribución acumulada teórica</t>
   </si>
   <si>
     <t>Anderson-Darling</t>
@@ -153,10 +147,6 @@
     <t>Prueba de Grubbs</t>
   </si>
   <si>
-    <t xml:space="preserve">H0: Las observaciones son aleatorias con respecto al número mediano de veces al mes que un cliente acude al restaurante
-</t>
-  </si>
-  <si>
     <t>Dixon n&lt;30</t>
   </si>
   <si>
@@ -171,13 +161,115 @@
   </si>
   <si>
     <t>H1: El monto gastado en la última visita no presenta un comportamiento uniforme,exponencial etc</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Basa su estadístico en el logaritmo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la distribución acumulada teórica</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">H0: Las observaciones son aleatorias </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>con respecto al número mediano</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de veces al mes que un cliente acude al restaurante
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>afirma que la proporción</t>
+    </r>
+  </si>
+  <si>
+    <t>H1: pi &gt; 0.4 greather</t>
+  </si>
+  <si>
+    <t>WILKOXON</t>
+  </si>
+  <si>
+    <t>ASIMETRIA</t>
+  </si>
+  <si>
+    <t>mediana</t>
+  </si>
+  <si>
+    <t>H0: Me ≥ 7
+H1: Me &lt; 7</t>
+  </si>
+  <si>
+    <t>H0: As = 0
+H1: As ≠ 0</t>
+  </si>
+  <si>
+    <t>MGG (la mas poderosa)</t>
+  </si>
+  <si>
+    <t>normalidad</t>
+  </si>
+  <si>
+    <t>Ho: El tiempo (en minutos) que les toma a los postulantes para completar el
+trámite de inscripción tienen distribución normal.
+H1: El tiempo (en minutos) que les toma a los postulantes para completar el
+trámite de inscripción no tienen distribución normal.</t>
+  </si>
+  <si>
+    <t>normalidad , (n&gt;50) ,Los datos de la variable de estudio deben estar medidos en al menos una escala
+intervalo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +309,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -361,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -398,9 +513,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -425,6 +537,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -434,6 +556,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -443,13 +574,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -458,8 +598,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -497,52 +655,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4946914B-19C9-446C-BE1E-289F4676B82F}">
-  <dimension ref="A3:F58"/>
+  <dimension ref="A3:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -891,502 +1024,579 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
-      <c r="C4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="D4" s="17"/>
       <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="55" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="44"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="44"/>
+      <c r="C7" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="13" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="44"/>
+      <c r="C8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="53"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="37"/>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="53"/>
-      <c r="C7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="53"/>
-      <c r="C8" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="53"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="36"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="53"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="36"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="53"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="37"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>16</v>
+      <c r="B12" s="44"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="38"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="38"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="38"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="54"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="39"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="48"/>
     </row>
     <row r="17" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>17</v>
+      <c r="B17" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>15</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="46" t="s">
         <v>18</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="42"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="38"/>
+      <c r="E18" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="38"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="42"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="38"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" spans="1:6" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="39"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="64"/>
+      <c r="F21" s="48"/>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="24"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="25"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="38"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="53"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="25"/>
+      <c r="F23" s="47"/>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="44"/>
+      <c r="C24" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="24"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="38"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="53"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="25"/>
+      <c r="F24" s="47"/>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B25" s="44"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="38"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="53"/>
-      <c r="C26" s="2"/>
+      <c r="F25" s="47"/>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B26" s="44"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="11"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="39"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="53"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="24"/>
+      <c r="F26" s="48"/>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="44"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="44"/>
+      <c r="C28" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="47"/>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="44"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="44"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="47"/>
+    </row>
+    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="44"/>
+      <c r="C31" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="47"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="44"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="47"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="45"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="48"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="32" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="53"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="38"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="53"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="38"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="53"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="38"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="53"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="39"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="53"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="53"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="38"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="53"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="38"/>
+      <c r="F34" s="38" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="53"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="38"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="39"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="54"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="3"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="33"/>
       <c r="F36" s="39"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
-      <c r="C37" s="35" t="s">
+      <c r="B37" s="22"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="39"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="40"/>
+    </row>
+    <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="32" t="s">
+      <c r="D39" s="5"/>
+      <c r="E39" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="23"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="33"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="23"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="33"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="23"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="33"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="34"/>
+    <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="22"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="33"/>
+      <c r="F40" s="39"/>
+    </row>
+    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="22"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="33"/>
+      <c r="F41" s="39"/>
     </row>
     <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
-      <c r="C42" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="29" t="s">
+      <c r="B42" s="22"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="39"/>
+    </row>
+    <row r="43" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="40"/>
+    </row>
+    <row r="44" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="22"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="42"/>
+    </row>
+    <row r="46" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="22"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="42"/>
+    </row>
+    <row r="47" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="22"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="42"/>
+    </row>
+    <row r="48" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="43"/>
+    </row>
+    <row r="49" spans="2:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" s="23"/>
+    </row>
+    <row r="50" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="36"/>
+      <c r="C50" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="23"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="33"/>
-    </row>
-    <row r="44" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="23"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="33"/>
-    </row>
-    <row r="45" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="23"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="33"/>
-    </row>
-    <row r="46" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="34"/>
-    </row>
-    <row r="47" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="5"/>
-      <c r="C47" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" s="65" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="23"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="66"/>
-    </row>
-    <row r="49" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="23"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="66"/>
-    </row>
-    <row r="50" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="23"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="66"/>
-    </row>
-    <row r="51" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="67"/>
-    </row>
-    <row r="52" spans="2:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="35" t="s">
+      <c r="D50" s="26"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="29" t="s">
+    </row>
+    <row r="51" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="36"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="28" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="52" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="36"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="33"/>
       <c r="F52" s="24"/>
     </row>
-    <row r="53" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="63"/>
-      <c r="C53" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="68" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="63"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="68" t="s">
-        <v>41</v>
+    <row r="53" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="37"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="35"/>
+      <c r="C54" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="63"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="25"/>
-    </row>
-    <row r="56" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="64"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="11"/>
-    </row>
-    <row r="57" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="30"/>
+    </row>
+    <row r="56" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="36"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="30"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="36"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="30"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="37"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="31"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="35"/>
+      <c r="C59" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="36"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="30"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="36"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="30"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="36"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="30"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="37"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="31"/>
+    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="E47:E51"/>
+  <mergeCells count="37">
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E13:E16"/>
     <mergeCell ref="B5:B16"/>
     <mergeCell ref="F22:F26"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="B17:B36"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="B17:B33"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="F7:F11"/>
     <mergeCell ref="D7:D11"/>
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="E44:E48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
